--- a/data/trans_dic/P16A02-Clase-trans_dic.xlsx
+++ b/data/trans_dic/P16A02-Clase-trans_dic.xlsx
@@ -697,7 +697,7 @@
         <v>0.2148630722294359</v>
       </c>
       <c r="N4" s="5" t="n">
-        <v>0.2504562074270529</v>
+        <v>0.2504562074270528</v>
       </c>
     </row>
     <row r="5">
@@ -708,40 +708,40 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.09518768029960813</v>
+        <v>0.09472986261185526</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.09790989315477469</v>
+        <v>0.09921923485251895</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.1621387512385502</v>
+        <v>0.1601569792373874</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>0.1617381004732014</v>
+        <v>0.1642256081760189</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>0.1623221087337267</v>
+        <v>0.1596964555662251</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>0.211527802977224</v>
+        <v>0.2082155656571164</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>0.1938335924941746</v>
+        <v>0.1920706605385638</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>0.2764990224559601</v>
+        <v>0.2769584625088788</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>0.1323331684226904</v>
+        <v>0.131090048567339</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>0.1525957002077294</v>
+        <v>0.1547270794522292</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>0.186949973180893</v>
+        <v>0.1839791620936845</v>
       </c>
       <c r="N5" s="5" t="n">
-        <v>0.2252708810742161</v>
+        <v>0.2245689313420975</v>
       </c>
     </row>
     <row r="6">
@@ -752,40 +752,40 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.1537815087877311</v>
+        <v>0.1552045633988225</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.166375501392275</v>
+        <v>0.1679347673977533</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.2406935942266609</v>
+        <v>0.2431088078076308</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>0.2318545368232633</v>
+        <v>0.2325299158694149</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>0.2584106934705075</v>
+        <v>0.2494946137816515</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>0.3097960982266408</v>
+        <v>0.308173445804114</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>0.2836761431705562</v>
+        <v>0.2858079991428756</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>0.3492917937144946</v>
+        <v>0.3468304422856742</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>0.1796946525825185</v>
+        <v>0.1832736657325917</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>0.2110735964067616</v>
+        <v>0.2149691227391873</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>0.2447690728476057</v>
+        <v>0.244067394691638</v>
       </c>
       <c r="N6" s="5" t="n">
-        <v>0.2744044570735971</v>
+        <v>0.2751350041557671</v>
       </c>
     </row>
     <row r="7">
@@ -844,40 +844,40 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.1233744777001303</v>
+        <v>0.1196136464472706</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.1458728545831268</v>
+        <v>0.1408584138650474</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.1340998554504637</v>
+        <v>0.1388828284553181</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>0.161446537227928</v>
+        <v>0.1588526453435881</v>
       </c>
       <c r="G8" s="5" t="n">
-        <v>0.181176194239445</v>
+        <v>0.1867216210706572</v>
       </c>
       <c r="H8" s="5" t="n">
-        <v>0.2709955593418453</v>
+        <v>0.2722118095432846</v>
       </c>
       <c r="I8" s="5" t="n">
-        <v>0.2097754913814235</v>
+        <v>0.2136838631924487</v>
       </c>
       <c r="J8" s="5" t="n">
-        <v>0.2791666084162195</v>
+        <v>0.2793520771821821</v>
       </c>
       <c r="K8" s="5" t="n">
-        <v>0.1613535281886361</v>
+        <v>0.1632551585668032</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>0.20958157993681</v>
+        <v>0.2138672613207497</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>0.1852331189607249</v>
+        <v>0.1853330065367057</v>
       </c>
       <c r="N8" s="5" t="n">
-        <v>0.2259363189527257</v>
+        <v>0.2269374205987726</v>
       </c>
     </row>
     <row r="9">
@@ -888,40 +888,40 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.1993539700182093</v>
+        <v>0.198503269905544</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.2235276367037889</v>
+        <v>0.2262789095799341</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.218597880629738</v>
+        <v>0.2215916244024831</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>0.2372589374557522</v>
+        <v>0.2329270514874479</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>0.2733289563406517</v>
+        <v>0.2737638053377863</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>0.3768781001053042</v>
+        <v>0.3815709028991515</v>
       </c>
       <c r="I9" s="5" t="n">
-        <v>0.307632251630529</v>
+        <v>0.3040646174949736</v>
       </c>
       <c r="J9" s="5" t="n">
-        <v>0.351389237013447</v>
+        <v>0.3566097340545479</v>
       </c>
       <c r="K9" s="5" t="n">
-        <v>0.2230236462555537</v>
+        <v>0.2235174687765804</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>0.2744568833087151</v>
+        <v>0.2801612413228518</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>0.2470455209949661</v>
+        <v>0.2486343476813692</v>
       </c>
       <c r="N9" s="5" t="n">
-        <v>0.27894881079054</v>
+        <v>0.2826840466678314</v>
       </c>
     </row>
     <row r="10">
@@ -945,7 +945,7 @@
         <v>0.1990929283642404</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>0.2772401135074791</v>
+        <v>0.277240113507479</v>
       </c>
       <c r="G10" s="5" t="n">
         <v>0.2351891706950439</v>
@@ -980,40 +980,40 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.1005121119188676</v>
+        <v>0.1039463092383124</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.1789333431181975</v>
+        <v>0.174879142007699</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.1634957213840425</v>
+        <v>0.1667045545750035</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>0.2339561494145515</v>
+        <v>0.2390291619317702</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>0.1748575194579652</v>
+        <v>0.174135890598859</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>0.2293760842130914</v>
+        <v>0.2324137137182934</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>0.285960586006802</v>
+        <v>0.2880079379442444</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>0.4049702962315668</v>
+        <v>0.40930464605898</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>0.1291636692433843</v>
+        <v>0.1287972400833498</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>0.2040403175952734</v>
+        <v>0.2052895258074636</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>0.2043606118455651</v>
+        <v>0.2086865954051105</v>
       </c>
       <c r="N11" s="5" t="n">
-        <v>0.2933297713043379</v>
+        <v>0.2969555788871435</v>
       </c>
     </row>
     <row r="12">
@@ -1024,40 +1024,40 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.1595095155141351</v>
+        <v>0.1609507418867961</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.245706686796749</v>
+        <v>0.243591759996424</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.2376235307804796</v>
+        <v>0.234090582090533</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>0.3202790257360045</v>
+        <v>0.3247001986697085</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>0.3071164922906355</v>
+        <v>0.3076086484657369</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>0.3449025917086488</v>
+        <v>0.3473475021048744</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>0.4422740621500678</v>
+        <v>0.4410715492075458</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>0.5262350635642159</v>
+        <v>0.5338455058336578</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>0.1826580151555185</v>
+        <v>0.1829961374188436</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>0.2626545621784045</v>
+        <v>0.2624912870313218</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>0.270259835115187</v>
+        <v>0.2760674873047738</v>
       </c>
       <c r="N12" s="5" t="n">
-        <v>0.3651160967329433</v>
+        <v>0.3688683036705861</v>
       </c>
     </row>
     <row r="13">
@@ -1105,7 +1105,7 @@
         <v>0.2365918795555796</v>
       </c>
       <c r="N13" s="5" t="n">
-        <v>0.3290068908337597</v>
+        <v>0.3290068908337598</v>
       </c>
     </row>
     <row r="14">
@@ -1116,40 +1116,40 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.1444434650821213</v>
+        <v>0.1433801551329122</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.178982515920302</v>
+        <v>0.1801193668211876</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.177223830184202</v>
+        <v>0.1784575145295757</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>0.2565235091841749</v>
+        <v>0.256262512004256</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>0.1880018957669751</v>
+        <v>0.1890536959815266</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>0.267169255545844</v>
+        <v>0.2640640359759001</v>
       </c>
       <c r="I14" s="5" t="n">
-        <v>0.2562845183395587</v>
+        <v>0.2579255846636073</v>
       </c>
       <c r="J14" s="5" t="n">
-        <v>0.3585933006888709</v>
+        <v>0.3609268776344421</v>
       </c>
       <c r="K14" s="5" t="n">
-        <v>0.166614343228999</v>
+        <v>0.1653731820726946</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>0.220924413820916</v>
+        <v>0.2228317575479276</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>0.2189371463181881</v>
+        <v>0.216261298907718</v>
       </c>
       <c r="N14" s="5" t="n">
-        <v>0.308949037101042</v>
+        <v>0.309562867232887</v>
       </c>
     </row>
     <row r="15">
@@ -1160,40 +1160,40 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.1861085828122974</v>
+        <v>0.1835904527394651</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.2271148678176929</v>
+        <v>0.2307036258039909</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.2243210224884875</v>
+        <v>0.225121368681753</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>0.313293250239537</v>
+        <v>0.3138039850362138</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>0.2504339986492383</v>
+        <v>0.2493658111576172</v>
       </c>
       <c r="H15" s="5" t="n">
-        <v>0.3362038369261091</v>
+        <v>0.3374857869250035</v>
       </c>
       <c r="I15" s="5" t="n">
-        <v>0.3228872482472793</v>
+        <v>0.3204853763827344</v>
       </c>
       <c r="J15" s="5" t="n">
-        <v>0.4167338736577543</v>
+        <v>0.4188113188121375</v>
       </c>
       <c r="K15" s="5" t="n">
-        <v>0.2030522416107463</v>
+        <v>0.200321634787478</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>0.2653793189781893</v>
+        <v>0.2635920714605298</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>0.2566556114953474</v>
+        <v>0.255664121014159</v>
       </c>
       <c r="N15" s="5" t="n">
-        <v>0.3500537111636342</v>
+        <v>0.3501884816524594</v>
       </c>
     </row>
     <row r="16">
@@ -1217,7 +1217,7 @@
         <v>0.1869556801950706</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>0.2530673459906429</v>
+        <v>0.2530673459906428</v>
       </c>
       <c r="G16" s="5" t="n">
         <v>0.2701793353660452</v>
@@ -1229,7 +1229,7 @@
         <v>0.3610002680350578</v>
       </c>
       <c r="J16" s="5" t="n">
-        <v>0.4798435265489765</v>
+        <v>0.4798435265489766</v>
       </c>
       <c r="K16" s="5" t="n">
         <v>0.2203073045611467</v>
@@ -1252,40 +1252,40 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>0.1055822795320858</v>
+        <v>0.1022850023633834</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>0.145965560929783</v>
+        <v>0.1427688992747932</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>0.1564524988349001</v>
+        <v>0.1563458017679339</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>0.2152428208109303</v>
+        <v>0.2173321972899141</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>0.2340116430252738</v>
+        <v>0.2353454588911389</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>0.3423392540500537</v>
+        <v>0.3501354697659338</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>0.3264085861732333</v>
+        <v>0.3263158061990492</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>0.4503496849239715</v>
+        <v>0.4504686578495658</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>0.1925063915259161</v>
+        <v>0.1939318505944291</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>0.272945597813528</v>
+        <v>0.2748725167105144</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>0.2578076317083234</v>
+        <v>0.2535822283010208</v>
       </c>
       <c r="N17" s="5" t="n">
-        <v>0.3640884706305696</v>
+        <v>0.3652821810995342</v>
       </c>
     </row>
     <row r="18">
@@ -1296,40 +1296,40 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>0.1814420702518453</v>
+        <v>0.1778819591837046</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>0.214542255378796</v>
+        <v>0.2112771641346031</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.2193861613795915</v>
+        <v>0.2237559310797988</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>0.294835270174704</v>
+        <v>0.2961253502271851</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>0.3076942225335756</v>
+        <v>0.3066990622510479</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>0.4193702921882864</v>
+        <v>0.4224635148654504</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>0.397218084825761</v>
+        <v>0.3959853274769974</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>0.5112359249681181</v>
+        <v>0.5091565235240432</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>0.2477864236228165</v>
+        <v>0.2497399785256542</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>0.3273555075365136</v>
+        <v>0.3289771529343522</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>0.3053320978987967</v>
+        <v>0.3056658856224295</v>
       </c>
       <c r="N18" s="5" t="n">
-        <v>0.4125460549532593</v>
+        <v>0.4147497341285794</v>
       </c>
     </row>
     <row r="19">
@@ -1365,7 +1365,7 @@
         <v>0.3276880208634446</v>
       </c>
       <c r="J19" s="5" t="n">
-        <v>0.376047292347884</v>
+        <v>0.3760472923478839</v>
       </c>
       <c r="K19" s="5" t="n">
         <v>0.2129415219976021</v>
@@ -1377,7 +1377,7 @@
         <v>0.2865651804270738</v>
       </c>
       <c r="N19" s="5" t="n">
-        <v>0.3178407647438722</v>
+        <v>0.3178407647438721</v>
       </c>
     </row>
     <row r="20">
@@ -1388,40 +1388,40 @@
         </is>
       </c>
       <c r="C20" s="5" t="n">
-        <v>0.03627190149680859</v>
+        <v>0.03611966529363795</v>
       </c>
       <c r="D20" s="5" t="n">
-        <v>0.04539630434850848</v>
+        <v>0.04603197464890194</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>0.09419229577389374</v>
+        <v>0.09070270472046149</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>0.05833251019492934</v>
+        <v>0.06129506004335552</v>
       </c>
       <c r="G20" s="5" t="n">
-        <v>0.2250995280977962</v>
+        <v>0.2265166483286377</v>
       </c>
       <c r="H20" s="5" t="n">
-        <v>0.3331608192243667</v>
+        <v>0.3337890398580985</v>
       </c>
       <c r="I20" s="5" t="n">
-        <v>0.3015930381811199</v>
+        <v>0.299329694421285</v>
       </c>
       <c r="J20" s="5" t="n">
-        <v>0.3437653050914606</v>
+        <v>0.3440253988824012</v>
       </c>
       <c r="K20" s="5" t="n">
-        <v>0.1912849169578212</v>
+        <v>0.192414571175387</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>0.2820954366367177</v>
+        <v>0.281782145662103</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>0.2605624705387588</v>
+        <v>0.2596041332371651</v>
       </c>
       <c r="N20" s="5" t="n">
-        <v>0.2904974370505573</v>
+        <v>0.2919011471603589</v>
       </c>
     </row>
     <row r="21">
@@ -1432,40 +1432,40 @@
         </is>
       </c>
       <c r="C21" s="5" t="n">
-        <v>0.09138906066463293</v>
+        <v>0.09348338106131542</v>
       </c>
       <c r="D21" s="5" t="n">
-        <v>0.1060280909042231</v>
+        <v>0.1046134751526623</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>0.1785664011883446</v>
+        <v>0.1764869262323449</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>0.1848373198526357</v>
+        <v>0.1814246816081419</v>
       </c>
       <c r="G21" s="5" t="n">
-        <v>0.2741274280246512</v>
+        <v>0.2735033641742629</v>
       </c>
       <c r="H21" s="5" t="n">
-        <v>0.3928303150633418</v>
+        <v>0.3941309685880162</v>
       </c>
       <c r="I21" s="5" t="n">
-        <v>0.3593610249979413</v>
+        <v>0.3582512414859274</v>
       </c>
       <c r="J21" s="5" t="n">
-        <v>0.4062316497022749</v>
+        <v>0.4080936283495654</v>
       </c>
       <c r="K21" s="5" t="n">
-        <v>0.2338827238944582</v>
+        <v>0.2366514653955678</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>0.3308204014381673</v>
+        <v>0.3343861531912543</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>0.3119389653437587</v>
+        <v>0.3104655693551857</v>
       </c>
       <c r="N21" s="5" t="n">
-        <v>0.3469606837582555</v>
+        <v>0.3451708557842026</v>
       </c>
     </row>
     <row r="22">
@@ -1501,7 +1501,7 @@
         <v>0.3105846994453805</v>
       </c>
       <c r="J22" s="5" t="n">
-        <v>0.3919011983984445</v>
+        <v>0.3919011983984444</v>
       </c>
       <c r="K22" s="5" t="n">
         <v>0.1897457775906888</v>
@@ -1513,7 +1513,7 @@
         <v>0.2507529191939603</v>
       </c>
       <c r="N22" s="5" t="n">
-        <v>0.3177409480155243</v>
+        <v>0.3177409480155244</v>
       </c>
     </row>
     <row r="23">
@@ -1524,40 +1524,40 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>0.1277263429000726</v>
+        <v>0.1278156691831661</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>0.1658142938795922</v>
+        <v>0.1661106033309114</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>0.1756830068252151</v>
+        <v>0.1738001047401835</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>0.2242796462339072</v>
+        <v>0.2241813542701625</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>0.2247124837854918</v>
+        <v>0.2236433174797817</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>0.3184830158947997</v>
+        <v>0.3180917564177181</v>
       </c>
       <c r="I23" s="5" t="n">
-        <v>0.2935426655793328</v>
+        <v>0.2941303695728277</v>
       </c>
       <c r="J23" s="5" t="n">
-        <v>0.377461919517208</v>
+        <v>0.3772989560789999</v>
       </c>
       <c r="K23" s="5" t="n">
-        <v>0.1801781655015074</v>
+        <v>0.180549403430906</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>0.2472216580183612</v>
+        <v>0.2470931837811379</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>0.2403417489503453</v>
+        <v>0.2400714558982596</v>
       </c>
       <c r="N23" s="5" t="n">
-        <v>0.3070643102630192</v>
+        <v>0.3074581959813759</v>
       </c>
     </row>
     <row r="24">
@@ -1568,40 +1568,40 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>0.1521362495547287</v>
+        <v>0.1506624679035268</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>0.1933671446144828</v>
+        <v>0.1926021116649405</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>0.203121048083337</v>
+        <v>0.2025033527975421</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>0.2549610723387234</v>
+        <v>0.255434618362948</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>0.2537960731468643</v>
+        <v>0.2534321872417319</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>0.3510975272296747</v>
+        <v>0.3499759223168657</v>
       </c>
       <c r="I24" s="5" t="n">
-        <v>0.3260475852323657</v>
+        <v>0.3252139618872855</v>
       </c>
       <c r="J24" s="5" t="n">
-        <v>0.405699741110536</v>
+        <v>0.4070860093697538</v>
       </c>
       <c r="K24" s="5" t="n">
-        <v>0.1990583672020029</v>
+        <v>0.1998453472621204</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>0.2694342632337273</v>
+        <v>0.2693782204837078</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>0.2621729143290378</v>
+        <v>0.262189239627193</v>
       </c>
       <c r="N24" s="5" t="n">
-        <v>0.328150821510288</v>
+        <v>0.32884709375129</v>
       </c>
     </row>
     <row r="25">
@@ -1874,40 +1874,40 @@
         </is>
       </c>
       <c r="C6" s="6" t="n">
-        <v>45098</v>
+        <v>44881</v>
       </c>
       <c r="D6" s="6" t="n">
-        <v>42807</v>
+        <v>43380</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>69572</v>
+        <v>68722</v>
       </c>
       <c r="F6" s="6" t="n">
-        <v>89056</v>
+        <v>90426</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>49781</v>
+        <v>48976</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>66516</v>
+        <v>65474</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>67271</v>
+        <v>66659</v>
       </c>
       <c r="J6" s="6" t="n">
-        <v>135045</v>
+        <v>135270</v>
       </c>
       <c r="K6" s="6" t="n">
-        <v>103280</v>
+        <v>102310</v>
       </c>
       <c r="L6" s="6" t="n">
-        <v>114701</v>
+        <v>116303</v>
       </c>
       <c r="M6" s="6" t="n">
-        <v>145101</v>
+        <v>142795</v>
       </c>
       <c r="N6" s="6" t="n">
-        <v>234063</v>
+        <v>233334</v>
       </c>
     </row>
     <row r="7">
@@ -1918,40 +1918,40 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>72858</v>
+        <v>73532</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>72741</v>
+        <v>73423</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>103280</v>
+        <v>104316</v>
       </c>
       <c r="F7" s="6" t="n">
-        <v>127663</v>
+        <v>128035</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>79249</v>
+        <v>76515</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>97417</v>
+        <v>96906</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>98451</v>
+        <v>99191</v>
       </c>
       <c r="J7" s="6" t="n">
-        <v>170598</v>
+        <v>169396</v>
       </c>
       <c r="K7" s="6" t="n">
-        <v>140244</v>
+        <v>143037</v>
       </c>
       <c r="L7" s="6" t="n">
-        <v>158657</v>
+        <v>161585</v>
       </c>
       <c r="M7" s="6" t="n">
-        <v>189977</v>
+        <v>189432</v>
       </c>
       <c r="N7" s="6" t="n">
-        <v>285114</v>
+        <v>285873</v>
       </c>
     </row>
     <row r="8">
@@ -2054,40 +2054,40 @@
         </is>
       </c>
       <c r="C10" s="6" t="n">
-        <v>45270</v>
+        <v>43890</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>60832</v>
+        <v>58740</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>50586</v>
+        <v>52390</v>
       </c>
       <c r="F10" s="6" t="n">
-        <v>78013</v>
+        <v>76760</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>67373</v>
+        <v>69435</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>91335</v>
+        <v>91745</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>78094</v>
+        <v>79549</v>
       </c>
       <c r="J10" s="6" t="n">
-        <v>118127</v>
+        <v>118206</v>
       </c>
       <c r="K10" s="6" t="n">
-        <v>119208</v>
+        <v>120613</v>
       </c>
       <c r="L10" s="6" t="n">
-        <v>158035</v>
+        <v>161267</v>
       </c>
       <c r="M10" s="6" t="n">
-        <v>138832</v>
+        <v>138907</v>
       </c>
       <c r="N10" s="6" t="n">
-        <v>204779</v>
+        <v>205686</v>
       </c>
     </row>
     <row r="11">
@@ -2098,40 +2098,40 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>73150</v>
+        <v>72838</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>93215</v>
+        <v>94362</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>82461</v>
+        <v>83590</v>
       </c>
       <c r="F11" s="6" t="n">
-        <v>114646</v>
+        <v>112553</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>101641</v>
+        <v>101803</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>127021</v>
+        <v>128602</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>114523</v>
+        <v>113195</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>148688</v>
+        <v>150897</v>
       </c>
       <c r="K11" s="6" t="n">
-        <v>164770</v>
+        <v>165134</v>
       </c>
       <c r="L11" s="6" t="n">
-        <v>206955</v>
+        <v>211256</v>
       </c>
       <c r="M11" s="6" t="n">
-        <v>185161</v>
+        <v>186351</v>
       </c>
       <c r="N11" s="6" t="n">
-        <v>252827</v>
+        <v>256212</v>
       </c>
     </row>
     <row r="12">
@@ -2234,40 +2234,40 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>54517</v>
+        <v>56379</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>112429</v>
+        <v>109882</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>85331</v>
+        <v>87005</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>110337</v>
+        <v>112729</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>29338</v>
+        <v>29217</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>59165</v>
+        <v>59948</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>47505</v>
+        <v>47845</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>75931</v>
+        <v>76743</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>91728</v>
+        <v>91468</v>
       </c>
       <c r="L14" s="6" t="n">
-        <v>180834</v>
+        <v>181941</v>
       </c>
       <c r="M14" s="6" t="n">
-        <v>140607</v>
+        <v>143584</v>
       </c>
       <c r="N14" s="6" t="n">
-        <v>193336</v>
+        <v>195726</v>
       </c>
     </row>
     <row r="15">
@@ -2278,40 +2278,40 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>86516</v>
+        <v>87298</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>154385</v>
+        <v>153056</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>124019</v>
+        <v>122175</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>151047</v>
+        <v>153133</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>51529</v>
+        <v>51611</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>88963</v>
+        <v>89594</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>73472</v>
+        <v>73272</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>98667</v>
+        <v>100094</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>129718</v>
+        <v>129959</v>
       </c>
       <c r="L15" s="6" t="n">
-        <v>232782</v>
+        <v>232637</v>
       </c>
       <c r="M15" s="6" t="n">
-        <v>185948</v>
+        <v>189944</v>
       </c>
       <c r="N15" s="6" t="n">
-        <v>240651</v>
+        <v>243124</v>
       </c>
     </row>
     <row r="16">
@@ -2414,40 +2414,40 @@
         </is>
       </c>
       <c r="C18" s="6" t="n">
-        <v>178869</v>
+        <v>177553</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>207139</v>
+        <v>208455</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>203743</v>
+        <v>205162</v>
       </c>
       <c r="F18" s="6" t="n">
-        <v>290344</v>
+        <v>290049</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>134287</v>
+        <v>135038</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>204827</v>
+        <v>202447</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>211659</v>
+        <v>213015</v>
       </c>
       <c r="J18" s="6" t="n">
-        <v>308824</v>
+        <v>310834</v>
       </c>
       <c r="K18" s="6" t="n">
-        <v>325334</v>
+        <v>322911</v>
       </c>
       <c r="L18" s="6" t="n">
-        <v>425053</v>
+        <v>428722</v>
       </c>
       <c r="M18" s="6" t="n">
-        <v>432513</v>
+        <v>427227</v>
       </c>
       <c r="N18" s="6" t="n">
-        <v>615752</v>
+        <v>616976</v>
       </c>
     </row>
     <row r="19">
@@ -2458,40 +2458,40 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>230465</v>
+        <v>227346</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>262843</v>
+        <v>266997</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>257888</v>
+        <v>258808</v>
       </c>
       <c r="F19" s="6" t="n">
-        <v>354599</v>
+        <v>355177</v>
       </c>
       <c r="G19" s="6" t="n">
-        <v>178881</v>
+        <v>178118</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>257753</v>
+        <v>258736</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>266665</v>
+        <v>264681</v>
       </c>
       <c r="J19" s="6" t="n">
-        <v>358896</v>
+        <v>360685</v>
       </c>
       <c r="K19" s="6" t="n">
-        <v>396484</v>
+        <v>391152</v>
       </c>
       <c r="L19" s="6" t="n">
-        <v>510583</v>
+        <v>507144</v>
       </c>
       <c r="M19" s="6" t="n">
-        <v>507027</v>
+        <v>505068</v>
       </c>
       <c r="N19" s="6" t="n">
-        <v>697676</v>
+        <v>697945</v>
       </c>
     </row>
     <row r="20">
@@ -2594,40 +2594,40 @@
         </is>
       </c>
       <c r="C22" s="6" t="n">
-        <v>36905</v>
+        <v>35752</v>
       </c>
       <c r="D22" s="6" t="n">
-        <v>74529</v>
+        <v>72897</v>
       </c>
       <c r="E22" s="6" t="n">
-        <v>97111</v>
+        <v>97045</v>
       </c>
       <c r="F22" s="6" t="n">
-        <v>122250</v>
+        <v>123437</v>
       </c>
       <c r="G22" s="6" t="n">
-        <v>133095</v>
+        <v>133853</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>260345</v>
+        <v>266273</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>240969</v>
+        <v>240901</v>
       </c>
       <c r="J22" s="6" t="n">
-        <v>373847</v>
+        <v>373946</v>
       </c>
       <c r="K22" s="6" t="n">
-        <v>176777</v>
+        <v>178085</v>
       </c>
       <c r="L22" s="6" t="n">
-        <v>346937</v>
+        <v>349386</v>
       </c>
       <c r="M22" s="6" t="n">
-        <v>350348</v>
+        <v>344606</v>
       </c>
       <c r="N22" s="6" t="n">
-        <v>509029</v>
+        <v>510698</v>
       </c>
     </row>
     <row r="23">
@@ -2638,40 +2638,40 @@
         </is>
       </c>
       <c r="C23" s="6" t="n">
-        <v>63421</v>
+        <v>62176</v>
       </c>
       <c r="D23" s="6" t="n">
-        <v>109544</v>
+        <v>107877</v>
       </c>
       <c r="E23" s="6" t="n">
-        <v>136174</v>
+        <v>138887</v>
       </c>
       <c r="F23" s="6" t="n">
-        <v>167456</v>
+        <v>168189</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>175002</v>
+        <v>174436</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>318926</v>
+        <v>321278</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>293244</v>
+        <v>292334</v>
       </c>
       <c r="J23" s="6" t="n">
-        <v>424391</v>
+        <v>422665</v>
       </c>
       <c r="K23" s="6" t="n">
-        <v>227540</v>
+        <v>229333</v>
       </c>
       <c r="L23" s="6" t="n">
-        <v>416096</v>
+        <v>418158</v>
       </c>
       <c r="M23" s="6" t="n">
-        <v>414931</v>
+        <v>415385</v>
       </c>
       <c r="N23" s="6" t="n">
-        <v>576777</v>
+        <v>579858</v>
       </c>
     </row>
     <row r="24">
@@ -2774,40 +2774,40 @@
         </is>
       </c>
       <c r="C26" s="6" t="n">
-        <v>10816</v>
+        <v>10771</v>
       </c>
       <c r="D26" s="6" t="n">
-        <v>12068</v>
+        <v>12237</v>
       </c>
       <c r="E26" s="6" t="n">
-        <v>27047</v>
+        <v>26045</v>
       </c>
       <c r="F26" s="6" t="n">
-        <v>13838</v>
+        <v>14541</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>281095</v>
+        <v>282865</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>368556</v>
+        <v>369251</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>326331</v>
+        <v>323882</v>
       </c>
       <c r="J26" s="6" t="n">
-        <v>289792</v>
+        <v>290011</v>
       </c>
       <c r="K26" s="6" t="n">
-        <v>295910</v>
+        <v>297658</v>
       </c>
       <c r="L26" s="6" t="n">
-        <v>387058</v>
+        <v>386628</v>
       </c>
       <c r="M26" s="6" t="n">
-        <v>356754</v>
+        <v>355442</v>
       </c>
       <c r="N26" s="6" t="n">
-        <v>313801</v>
+        <v>315318</v>
       </c>
     </row>
     <row r="27">
@@ -2818,40 +2818,40 @@
         </is>
       </c>
       <c r="C27" s="6" t="n">
-        <v>27252</v>
+        <v>27877</v>
       </c>
       <c r="D27" s="6" t="n">
-        <v>28187</v>
+        <v>27811</v>
       </c>
       <c r="E27" s="6" t="n">
-        <v>51274</v>
+        <v>50677</v>
       </c>
       <c r="F27" s="6" t="n">
-        <v>43849</v>
+        <v>43039</v>
       </c>
       <c r="G27" s="6" t="n">
-        <v>342319</v>
+        <v>341540</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>434565</v>
+        <v>436003</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>388838</v>
+        <v>387637</v>
       </c>
       <c r="J27" s="6" t="n">
-        <v>342450</v>
+        <v>344020</v>
       </c>
       <c r="K27" s="6" t="n">
-        <v>361807</v>
+        <v>366090</v>
       </c>
       <c r="L27" s="6" t="n">
-        <v>453912</v>
+        <v>458805</v>
       </c>
       <c r="M27" s="6" t="n">
-        <v>427097</v>
+        <v>425080</v>
       </c>
       <c r="N27" s="6" t="n">
-        <v>374794</v>
+        <v>372861</v>
       </c>
     </row>
     <row r="28">
@@ -2954,40 +2954,40 @@
         </is>
       </c>
       <c r="C30" s="6" t="n">
-        <v>417559</v>
+        <v>417851</v>
       </c>
       <c r="D30" s="6" t="n">
-        <v>566473</v>
+        <v>567485</v>
       </c>
       <c r="E30" s="6" t="n">
-        <v>594814</v>
+        <v>588439</v>
       </c>
       <c r="F30" s="6" t="n">
-        <v>772077</v>
+        <v>771739</v>
       </c>
       <c r="G30" s="6" t="n">
-        <v>759107</v>
+        <v>755495</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>1128325</v>
+        <v>1126939</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>1036674</v>
+        <v>1038750</v>
       </c>
       <c r="J30" s="6" t="n">
-        <v>1371463</v>
+        <v>1370871</v>
       </c>
       <c r="K30" s="6" t="n">
-        <v>1197698</v>
+        <v>1200165</v>
       </c>
       <c r="L30" s="6" t="n">
-        <v>1720445</v>
+        <v>1719551</v>
       </c>
       <c r="M30" s="6" t="n">
-        <v>1662520</v>
+        <v>1660651</v>
       </c>
       <c r="N30" s="6" t="n">
-        <v>2172743</v>
+        <v>2175531</v>
       </c>
     </row>
     <row r="31">
@@ -2998,40 +2998,40 @@
         </is>
       </c>
       <c r="C31" s="6" t="n">
-        <v>497360</v>
+        <v>492542</v>
       </c>
       <c r="D31" s="6" t="n">
-        <v>660602</v>
+        <v>657989</v>
       </c>
       <c r="E31" s="6" t="n">
-        <v>687711</v>
+        <v>685620</v>
       </c>
       <c r="F31" s="6" t="n">
-        <v>877697</v>
+        <v>879328</v>
       </c>
       <c r="G31" s="6" t="n">
-        <v>857355</v>
+        <v>856125</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>1243872</v>
+        <v>1239899</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>1151468</v>
+        <v>1148524</v>
       </c>
       <c r="J31" s="6" t="n">
-        <v>1474062</v>
+        <v>1479099</v>
       </c>
       <c r="K31" s="6" t="n">
-        <v>1323200</v>
+        <v>1328431</v>
       </c>
       <c r="L31" s="6" t="n">
-        <v>1875026</v>
+        <v>1874636</v>
       </c>
       <c r="M31" s="6" t="n">
-        <v>1813533</v>
+        <v>1813646</v>
       </c>
       <c r="N31" s="6" t="n">
-        <v>2321949</v>
+        <v>2326875</v>
       </c>
     </row>
     <row r="32">
